--- a/biology/Zoologie/Aspidites/Aspidites.xlsx
+++ b/biology/Zoologie/Aspidites/Aspidites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspidites est un genre de serpents de la famille des Pythonidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspidites est un genre de serpents de la famille des Pythonidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 2 espèces de ce genre sont endémiques d'Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 2 espèces de ce genre sont endémiques d'Australie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des serpents constricteurs ovipares.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (24 avril 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (24 avril 2014) :
 Aspidites melanocephalus (Krefft, 1864) - Python à tête noire ou Python à tête noire d'Australie
 Aspidites ramsayi (Macleay, 1882) - Python de Ramsay ou Woma</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Krefft, 1864 : Description of Aspidiotes melanocephalus, a new snake from Port Denison. Proceedings of the Zoological Society of London, vol. 1864, p. 20-22 (texte intégral).
 Peters, 1877 "1876" : Über die von S. M. S. Gazelle mitgebrachten Amphibien. Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1876, p. 528-535+914 (texte intégral).</t>
